--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -5,189 +5,184 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Want To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needed Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persistence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter testimonials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testimonials stored and viewable by all users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data entry, persistence, view stored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign on to identify myself and my role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">define what I am able to do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a way for users to know who we are and contact us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viewable  test with phone phone number and email and logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clickable links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Render objects in 2D with object ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visualize objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify object geometry and position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objects in relation to other objects, palette size is 1000px x 500px</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origin top left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parsing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a list of objects to be rendered in a file I supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visualize specified objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specify different type of objects: lines, poly-lines,polygon, rectangle, ellipse, with unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specify line and poly-line characteristics: pen color, pen width, pen style, pencapstyle, penjoinstyle, endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specify shape characteristics: pen color, pen width, pen style, pencapstyle, penjoinstyle, vertices, brush color, brush style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specify text characteristics: bounding box, text string, text color, alignment, point size, font family, font style, font weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move shapes in render area using a move shapes form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visualize the modified shapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add and remove shapes in rendering area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get a list of shapes being rendered sorted by ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">record of what was displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display list in separate window? Must show all properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get a list of shapes other than lines and text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display list in separate window?  Must show id, area, type of shape sorted by area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display list in separate window?  Must show id, perimeter, type of shape sorted by perimeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save my work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I can work on it later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required for project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modify the double vector example into templated form</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Want To</t>
+  </si>
+  <si>
+    <t>Needed Result</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>enter testimonials</t>
+  </si>
+  <si>
+    <t>testimonials stored and viewable by all users</t>
+  </si>
+  <si>
+    <t>data entry, persistence, view stored</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Sign on to identify myself and my role</t>
+  </si>
+  <si>
+    <t>define what I am able to do</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Site Owner</t>
+  </si>
+  <si>
+    <t>Provide a way for users to know who we are and contact us</t>
+  </si>
+  <si>
+    <t>Viewable  test with phone phone number and email and logo</t>
+  </si>
+  <si>
+    <t>clickable links</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Rendering</t>
+  </si>
+  <si>
+    <t>Render objects in 2D with object ID</t>
+  </si>
+  <si>
+    <t>visualize objects</t>
+  </si>
+  <si>
+    <t>Specify object geometry and position</t>
+  </si>
+  <si>
+    <t>objects in relation to other objects, palette size is 1000px x 500px</t>
+  </si>
+  <si>
+    <t>origin top left</t>
+  </si>
+  <si>
+    <t>Kole</t>
+  </si>
+  <si>
+    <t>Parsing</t>
+  </si>
+  <si>
+    <t>Provide a list of objects to be rendered in a file I supply</t>
+  </si>
+  <si>
+    <t>visualize specified objects</t>
+  </si>
+  <si>
+    <t>specify different type of objects: lines, poly-lines,polygon, rectangle, ellipse, with unique IDs</t>
+  </si>
+  <si>
+    <t>specify line and poly-line characteristics: pen color, pen width, pen style, pencapstyle, penjoinstyle, endpoints</t>
+  </si>
+  <si>
+    <t>specify shape characteristics: pen color, pen width, pen style, pencapstyle, penjoinstyle, vertices, brush color, brush style</t>
+  </si>
+  <si>
+    <t>specify text characteristics: bounding box, text string, text color, alignment, point size, font family, font style, font weight</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>Manipulating</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Move shapes in render area using a move shapes form</t>
+  </si>
+  <si>
+    <t>visualize the modified shapes</t>
+  </si>
+  <si>
+    <t>Add and remove shapes in rendering area</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Get a list of shapes being rendered sorted by ID</t>
+  </si>
+  <si>
+    <t>record of what was displayed</t>
+  </si>
+  <si>
+    <t>Display list in separate window? Must show all properties</t>
+  </si>
+  <si>
+    <t>Get a list of shapes other than lines and text</t>
+  </si>
+  <si>
+    <t>Display list in separate window?  Must show id, area, type of shape sorted by area</t>
+  </si>
+  <si>
+    <t>Display list in separate window?  Must show id, perimeter, type of shape sorted by perimeter</t>
+  </si>
+  <si>
+    <t>Save my work</t>
+  </si>
+  <si>
+    <t>So I can work on it later</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Required for project</t>
+  </si>
+  <si>
+    <t>modify the double vector example into templated form</t>
   </si>
 </sst>
 </file>
@@ -195,8 +190,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -230,7 +225,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -239,51 +234,55 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -293,23 +292,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100">
+      <selection activeCell="G2" activeCellId="0" pane="topLeft" sqref="G2:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="36.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.6785714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -319,13 +318,13 @@
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
@@ -335,11 +334,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.6" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -348,24 +347,24 @@
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -374,14 +373,14 @@
       <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>2000</v>
       </c>
@@ -394,160 +393,163 @@
       <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.65" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.6" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.65" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>4100</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="67.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.65" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>4110</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="67.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="45.15" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>4120</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="67.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.65" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>4130</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.6" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>5000</v>
       </c>
@@ -560,34 +562,34 @@
       <c r="D12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.6" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.65" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>7000</v>
       </c>
@@ -600,21 +602,21 @@
       <c r="D14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="45.7" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>8000</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -623,21 +625,21 @@
       <c r="D15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="45.7" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>9000</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -646,37 +648,37 @@
       <c r="D16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.65" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>11000</v>
       </c>
@@ -689,20 +691,36 @@
       <c r="D18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
